--- a/userdocu/Options.xlsx
+++ b/userdocu/Options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canli/euler/work/GETP/userdocu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6D8F5-7813-6145-ABAA-70410A7585F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E0D57F-54CE-8F42-BB9E-3516EEFFD254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3520" yWindow="460" windowWidth="38400" windowHeight="19420" xr2:uid="{092FDF6F-497F-5A4D-A9D0-C4FAD83B1848}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19420" xr2:uid="{092FDF6F-497F-5A4D-A9D0-C4FAD83B1848}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Argument</t>
   </si>
@@ -50,8 +50,7 @@
     <t>Select which model to create</t>
   </si>
   <si>
-    <t>"GTEP": generation and transmission expansion. 
-"GEP" generation expansion</t>
+    <t>"GTEP": generation and transmission expansion. "GEP" generation expansion</t>
   </si>
   <si>
     <t>instance</t>
@@ -69,16 +68,25 @@
     <t>"fullspace", "Benders", "NestedBenders", "SDDP"</t>
   </si>
   <si>
-    <t>Select which algorithm to use. Note that for GTEP model, only "Benders" is recommended.</t>
-  </si>
-  <si>
     <t>stochastic</t>
   </si>
   <si>
     <t>Select which parameters are considered as stochastic. Only works for GEP models.</t>
   </si>
   <si>
-    <t>give a list of parameters. If the list is empty, then solve a deterministic model. Possible input is ["CarbonTax", "Load", "FuelPrice"]</t>
+    <t>Select which algorithm to use. Note that for GTEP model, only "Benders" and "fullspace" recommended.</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>give a list of parameters. If the list is empty, then solve a deterministic model. Parameters that we can consider are "CarbonTax", "Load", "FuelPrice". Therefore, an  example input is ["CarbonTax", "Load", "FuelPrice"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decide if a verbose output file is written. </t>
+  </si>
+  <si>
+    <t>True, False</t>
   </si>
 </sst>
 </file>
@@ -433,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D84740-4021-E14D-92F8-85F1D569BD5D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -483,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -491,13 +499,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
